--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/67/incorrect_predictions_67.xlsx
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected Panorama has</t>
+          <t>Capture Failed Stick movement detected Panorama has stopped</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/67/incorrect_predictions_67.xlsx
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped</t>
+          <t>Capture Failed Stick movement detected Panorama has</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
